--- a/resources/public/files/suite.amiba.price.xlsx
+++ b/resources/public/files/suite.amiba.price.xlsx
@@ -39,27 +39,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">销售价，采购价
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>purpose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,19 +133,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行.价格类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line.cost_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行.价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line.type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,13 +192,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,26 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -300,7 +255,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -643,31 +597,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="我的表格"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="31" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="22.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -687,17 +640,14 @@
         <v>20</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -716,17 +666,14 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -741,15 +688,15 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6">
+      <c r="H3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -764,15 +711,12 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
